--- a/excels/pings/alpha01_count20_auckland.xlsx
+++ b/excels/pings/alpha01_count20_auckland.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>ertt</t>
+  </si>
+  <si>
+    <t>rttAvg</t>
   </si>
   <si>
     <t>throughput</t>
@@ -875,21 +878,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,10 +918,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -935,18 +942,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.37464118003800001</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
+        <v>0.32966995239300001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -955,27 +965,27 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.37519383430499997</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.32699894905100002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20.169645799400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -984,24 +994,27 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.38201308250400001</v>
+        <v>0.32067084312400002</v>
       </c>
       <c r="H4" s="1">
-        <v>11.2211001303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I4" s="1">
+        <v>26.735246697899999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1010,24 +1023,27 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.36965703964199997</v>
+        <v>0.33144092559799998</v>
       </c>
       <c r="H5" s="1">
-        <v>6.4868662151700001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30.694745847499998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1036,24 +1052,27 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.372627973557</v>
+        <v>0.32079601287800003</v>
       </c>
       <c r="H6" s="1">
-        <v>5.16789793406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>36.017342935800002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1062,24 +1081,27 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>0.39395117759699999</v>
+        <v>0.335653066635</v>
       </c>
       <c r="H7" s="1">
-        <v>4.5901985698600001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>38.0950246656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1088,24 +1110,27 @@
         <v>129</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>0.38260293006899998</v>
+        <v>0.32718992233299998</v>
       </c>
       <c r="H8" s="1">
-        <v>4.5805952491099999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42.514841667699997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1114,24 +1139,27 @@
         <v>149</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F9" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.36251807212800002</v>
+        <v>0.32967877388</v>
       </c>
       <c r="H9" s="1">
-        <v>4.8941798835899997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>32.065113357199998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1149,18 +1177,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.37533234665100002</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
+        <v>0.32964979512300002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -1169,27 +1200,27 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>0.37483883410000002</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.32642414173399997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20.205162963999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1198,24 +1229,27 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.38131399836800001</v>
+        <v>0.32066183102700002</v>
       </c>
       <c r="H12" s="1">
-        <v>11.2416723965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I12" s="1">
+        <v>26.735998083399998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1224,24 +1258,27 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>0.370728018306</v>
+        <v>0.33201179984599999</v>
       </c>
       <c r="H13" s="1">
-        <v>6.46812661372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30.6419680849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1250,24 +1287,27 @@
         <v>89</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.374753754163</v>
+        <v>0.32207872230200002</v>
       </c>
       <c r="H14" s="1">
-        <v>5.1385831718099997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>35.873900410799997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -1276,24 +1316,27 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>0.38982149150299999</v>
+        <v>0.33493722756599997</v>
       </c>
       <c r="H15" s="1">
-        <v>4.6388261586899997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>38.176442629100002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -1302,24 +1345,27 @@
         <v>129</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>0.384988273687</v>
+        <v>0.32760855571300002</v>
       </c>
       <c r="H16" s="1">
-        <v>4.5522144011999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>42.460514234599998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1328,24 +1374,27 @@
         <v>149</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.36429029248599998</v>
+        <v>0.32963026513499999</v>
       </c>
       <c r="H17" s="1">
-        <v>4.8703703959400002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>32.069832093899997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1363,18 +1412,21 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.375853538963</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
+        <v>0.32955040484100001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1383,27 +1435,27 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>0.37468408434</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.32620933717299999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20.218467798300001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1412,24 +1464,27 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.38054270985299998</v>
+        <v>0.32097270452799997</v>
       </c>
       <c r="H20" s="1">
-        <v>11.2644571526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I20" s="1">
+        <v>26.710103316600001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1438,24 +1493,27 @@
         <v>69</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>0.37203357220200001</v>
+        <v>0.33238711407299998</v>
       </c>
       <c r="H21" s="1">
-        <v>6.4454284259000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>30.607368769499999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.2</v>
@@ -1464,24 +1522,27 @@
         <v>89</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.376417140007</v>
+        <v>0.32355512831599997</v>
       </c>
       <c r="H22" s="1">
-        <v>5.1158757932199999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>35.710205146200003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -1490,24 +1551,27 @@
         <v>109</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.38614746813799999</v>
+        <v>0.33446626007000002</v>
       </c>
       <c r="H23" s="1">
-        <v>4.68296254983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>38.230199512200002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0.2</v>
@@ -1516,24 +1580,27 @@
         <v>129</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G24" s="1">
-        <v>0.38672387731899999</v>
+        <v>0.32783544145499999</v>
       </c>
       <c r="H24" s="1">
-        <v>4.5317842175100003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>42.4311285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1542,24 +1609,27 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>0.36638113568300001</v>
+        <v>0.329646446165</v>
       </c>
       <c r="H25" s="1">
-        <v>4.8425764409000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>32.0682579136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0.3</v>
@@ -1577,18 +1647,21 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.37622255746099997</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
+        <v>0.32940227400299998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -1597,27 +1670,27 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>0.37472621294300001</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.32637107104200003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20.208448494199999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -1626,24 +1699,27 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.37973357070300001</v>
+        <v>0.3218036205</v>
       </c>
       <c r="H28" s="1">
-        <v>11.2884595427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I28" s="1">
+        <v>26.641136250799999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>0.3</v>
@@ -1652,24 +1728,27 @@
         <v>69</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.37382360242399998</v>
+        <v>0.33263896918899999</v>
       </c>
       <c r="H29" s="1">
-        <v>6.41456490737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>30.584194628399999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.3</v>
@@ -1678,24 +1757,27 @@
         <v>89</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.37774006719199998</v>
+        <v>0.32518992065199998</v>
       </c>
       <c r="H30" s="1">
-        <v>5.0979588928100004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>35.530683070099997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -1704,24 +1786,27 @@
         <v>109</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G31" s="1">
-        <v>0.38293787876899998</v>
+        <v>0.33447940061300002</v>
       </c>
       <c r="H31" s="1">
-        <v>4.7222127458800003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>38.228697579299997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>0.3</v>
@@ -1730,24 +1815,27 @@
         <v>129</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G32" s="1">
-        <v>0.38812745142400001</v>
+        <v>0.32787952691</v>
       </c>
       <c r="H32" s="1">
-        <v>4.5153960569900002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>42.425423369199997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>0.3</v>
@@ -1756,24 +1844,27 @@
         <v>149</v>
       </c>
       <c r="D33">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.368947584622</v>
+        <v>0.329790926077</v>
       </c>
       <c r="H33" s="1">
-        <v>4.8088908289400001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>32.054208955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0.4</v>
@@ -1791,18 +1882,21 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.37647487905100002</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
+        <v>0.32926715599099998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.4</v>
@@ -1811,27 +1905,27 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.374983542625</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.32689454308600002</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20.176087728100001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.4</v>
@@ -1840,24 +1934,27 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.37894479871800002</v>
+        <v>0.323255865857</v>
       </c>
       <c r="H36" s="1">
-        <v>11.3119564231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I36" s="1">
+        <v>26.521449431400001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0.4</v>
@@ -1866,24 +1963,27 @@
         <v>69</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.37618107900800002</v>
+        <v>0.33280704275099998</v>
       </c>
       <c r="H37" s="1">
-        <v>6.37436568575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>30.5687490583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0.4</v>
@@ -1892,24 +1992,27 @@
         <v>89</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.37891588418599997</v>
+        <v>0.32692004927000001</v>
       </c>
       <c r="H38" s="1">
-        <v>5.0821393746799997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>35.342647335599999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.4</v>
@@ -1918,24 +2021,27 @@
         <v>109</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F39" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G39" s="1">
-        <v>0.38025154387100002</v>
+        <v>0.33505802830800002</v>
       </c>
       <c r="H39" s="1">
-        <v>4.7555734122500004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>38.162678617499999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.4</v>
@@ -1944,24 +2050,27 @@
         <v>129</v>
       </c>
       <c r="D40">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G40" s="1">
-        <v>0.38958315490200002</v>
+        <v>0.327752555901</v>
       </c>
       <c r="H40" s="1">
-        <v>4.4985239780499997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>42.441858935399999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.4</v>
@@ -1970,24 +2079,27 @@
         <v>149</v>
       </c>
       <c r="D41">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F41" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.37196223361500003</v>
+        <v>0.33012249611299999</v>
       </c>
       <c r="H41" s="1">
-        <v>4.76991612509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>32.022014192900002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -2005,18 +2117,21 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0.37668273970499999</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
+        <v>0.32927755359600003</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -2025,27 +2140,27 @@
         <v>29</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.37551091309000001</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.32774417062200001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I43" s="1">
+        <v>20.123784251099998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -2054,24 +2169,27 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37824268496800001</v>
+        <v>0.32532267481499999</v>
       </c>
       <c r="H44" s="1">
-        <v>11.3329542651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I44" s="1">
+        <v>26.352955891000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0.5</v>
@@ -2080,24 +2198,27 @@
         <v>69</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.37899781318999998</v>
+        <v>0.33290829638300001</v>
       </c>
       <c r="H45" s="1">
-        <v>6.3269910226599997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I45" s="1">
+        <v>30.5594516124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -2106,24 +2227,27 @@
         <v>89</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.38017815612900002</v>
+        <v>0.32863168353099997</v>
       </c>
       <c r="H46" s="1">
-        <v>5.0652655963299997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>35.158569874199998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -2132,24 +2256,27 @@
         <v>109</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F47" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37820246354100001</v>
+        <v>0.33616921112800002</v>
       </c>
       <c r="H47" s="1">
-        <v>4.78133884976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>38.0365346655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -2158,24 +2285,27 @@
         <v>129</v>
       </c>
       <c r="D48">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G48" s="1">
-        <v>0.39144874197599999</v>
+        <v>0.32747871207500001</v>
       </c>
       <c r="H48" s="1">
-        <v>4.4770846750600004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>42.477349611800001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -2184,24 +2314,27 @@
         <v>149</v>
       </c>
       <c r="D49">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.37530597980500002</v>
+        <v>0.330694074846</v>
       </c>
       <c r="H49" s="1">
-        <v>4.7274190967300003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I49" s="1">
+        <v>31.966666656600001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -2219,18 +2352,21 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0.37699938938999999</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
+        <v>0.32972164470900001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0.6</v>
@@ -2239,27 +2375,27 @@
         <v>29</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>0.37641068532799998</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.328865121777</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I51" s="1">
+        <v>20.055191451999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>0.6</v>
@@ -2268,24 +2404,27 @@
         <v>49</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>0.37767060101400002</v>
+        <v>0.327876558687</v>
       </c>
       <c r="H52" s="1">
-        <v>11.350121079999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I52" s="1">
+        <v>26.1476884291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0.6</v>
@@ -2294,24 +2433,27 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F53" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>0.38193379435500002</v>
+        <v>0.33293645014000001</v>
       </c>
       <c r="H53" s="1">
-        <v>6.2783545135300001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I53" s="1">
+        <v>30.5568674455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>0.6</v>
@@ -2320,24 +2462,27 @@
         <v>89</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>0.38169748280100002</v>
+        <v>0.33017416526900001</v>
       </c>
       <c r="H54" s="1">
-        <v>5.0451035741299997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I54" s="1">
+        <v>34.994318828300003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>0.6</v>
@@ -2346,24 +2491,27 @@
         <v>109</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G55" s="1">
-        <v>0.376974858922</v>
+        <v>0.33768191363200001</v>
       </c>
       <c r="H55" s="1">
-        <v>4.7969091020399999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>37.866143658699997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -2372,24 +2520,27 @@
         <v>129</v>
       </c>
       <c r="D56">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G56" s="1">
-        <v>0.393825230548</v>
+        <v>0.32710950854300003</v>
       </c>
       <c r="H56" s="1">
-        <v>4.4500682735100003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I56" s="1">
+        <v>42.525293151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2398,24 +2549,27 @@
         <v>149</v>
       </c>
       <c r="D57">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F57" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>0.378838308515</v>
+        <v>0.331551357622</v>
       </c>
       <c r="H57" s="1">
-        <v>4.6833401379200001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I57" s="1">
+        <v>31.884011369300001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0.7</v>
@@ -2433,18 +2587,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0.37775570632799998</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
+        <v>0.33121620044900002</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>0.7</v>
@@ -2453,27 +2610,27 @@
         <v>29</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>0.37778051340199997</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.33018425362800002</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I59" s="1">
+        <v>19.975068182899999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>0.7</v>
@@ -2482,24 +2639,27 @@
         <v>49</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F60" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>0.37719384046799997</v>
+        <v>0.33064289601899999</v>
       </c>
       <c r="H60" s="1">
-        <v>11.364467257899999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I60" s="1">
+        <v>25.928922722900001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0.7</v>
@@ -2508,24 +2668,27 @@
         <v>69</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>0.38435784939099998</v>
+        <v>0.332850158861</v>
       </c>
       <c r="H61" s="1">
-        <v>6.2387584004300001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I61" s="1">
+        <v>30.564789301899999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0.7</v>
@@ -2534,24 +2697,27 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F62" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.38338009975300003</v>
+        <v>0.33142623564599999</v>
       </c>
       <c r="H62" s="1">
-        <v>5.0229611186299996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I62" s="1">
+        <v>34.8621164097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0.7</v>
@@ -2560,24 +2726,27 @@
         <v>109</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G63" s="1">
-        <v>0.376852398496</v>
+        <v>0.33929013802300001</v>
       </c>
       <c r="H63" s="1">
-        <v>4.7984678861500001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>37.686659350200003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0.7</v>
@@ -2586,24 +2755,27 @@
         <v>129</v>
       </c>
       <c r="D64">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G64" s="1">
-        <v>0.39622409719200002</v>
+        <v>0.326753154288</v>
       </c>
       <c r="H64" s="1">
-        <v>4.4231261455100004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I64" s="1">
+        <v>42.571670879700001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0.7</v>
@@ -2612,24 +2784,27 @@
         <v>149</v>
       </c>
       <c r="D65">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F65" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>0.38242126299599999</v>
+        <v>0.33269059525299999</v>
       </c>
       <c r="H65" s="1">
-        <v>4.6394613159100002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I65" s="1">
+        <v>31.774830448399999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>0.8</v>
@@ -2647,18 +2822,21 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0.37964432609100002</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
+        <v>0.33502288921899998</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>0.8</v>
@@ -2667,27 +2845,27 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>0.379458145606</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.33174173711100002</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I67" s="1">
+        <v>19.881287885500001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>0.8</v>
@@ -2696,24 +2874,27 @@
         <v>49</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F68" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>0.37669705322699998</v>
+        <v>0.33315869626</v>
       </c>
       <c r="H68" s="1">
-        <v>11.379454692199999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I68" s="1">
+        <v>25.733124171699998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>0.8</v>
@@ -2722,24 +2903,27 @@
         <v>69</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F69" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>0.38524655918</v>
+        <v>0.33257277542300001</v>
       </c>
       <c r="H69" s="1">
-        <v>6.2243664596499997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I69" s="1">
+        <v>30.590281966900001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>0.8</v>
@@ -2748,24 +2932,27 @@
         <v>89</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F70" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.38451681086099998</v>
+        <v>0.33237321144800003</v>
       </c>
       <c r="H70" s="1">
-        <v>5.00811220816</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I70" s="1">
+        <v>34.762789570000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>0.8</v>
@@ -2774,24 +2961,27 @@
         <v>109</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G71" s="1">
-        <v>0.37810530897</v>
+        <v>0.34024879178099998</v>
       </c>
       <c r="H71" s="1">
-        <v>4.7825674199900003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I71" s="1">
+        <v>37.580476878699997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>0.8</v>
@@ -2800,24 +2990,27 @@
         <v>129</v>
       </c>
       <c r="D72">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G72" s="1">
-        <v>0.39725372396399999</v>
+        <v>0.32669588954099998</v>
       </c>
       <c r="H72" s="1">
-        <v>4.41166201359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>42.579133036499996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>0.8</v>
@@ -2826,24 +3019,27 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F73" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>0.38596605786600002</v>
+        <v>0.333849344632</v>
       </c>
       <c r="H73" s="1">
-        <v>4.5968515103599996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I73" s="1">
+        <v>31.664543980400001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>0.9</v>
@@ -2861,18 +3057,21 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0.38403440947900003</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
+        <v>0.34357619853100002</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>0.9</v>
@@ -2881,27 +3080,27 @@
         <v>29</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G75" s="1">
-        <v>0.38094850538199998</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.33510141269799998</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I75" s="1">
+        <v>19.681961129400001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>0.9</v>
@@ -2910,24 +3109,27 @@
         <v>49</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F76" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G76" s="1">
-        <v>0.37663837796400002</v>
+        <v>0.33498752634099999</v>
       </c>
       <c r="H76" s="1">
-        <v>11.3812274603</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I76" s="1">
+        <v>25.592636816599999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>0.9</v>
@@ -2936,24 +3138,27 @@
         <v>69</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F77" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G77" s="1">
-        <v>0.38331503666700001</v>
+        <v>0.33233684701900001</v>
       </c>
       <c r="H77" s="1">
-        <v>6.2557310104599999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I77" s="1">
+        <v>30.611998236000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>0.9</v>
@@ -2962,24 +3167,27 @@
         <v>89</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>0.383429274835</v>
+        <v>0.332973928315</v>
       </c>
       <c r="H78" s="1">
-        <v>5.0223169202299998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I78" s="1">
+        <v>34.700074167300002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>0.9</v>
@@ -2988,24 +3196,27 @@
         <v>109</v>
       </c>
       <c r="D79">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F79" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G79" s="1">
-        <v>0.38002787221200002</v>
+        <v>0.33894376961</v>
       </c>
       <c r="H79" s="1">
-        <v>4.7583723832500002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I79" s="1">
+        <v>37.725171544699997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>0.9</v>
@@ -3014,24 +3225,27 @@
         <v>129</v>
       </c>
       <c r="D80">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F80" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G80" s="1">
-        <v>0.39413439084399998</v>
+        <v>0.32811409627600002</v>
       </c>
       <c r="H80" s="1">
-        <v>4.4465776255099998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I80" s="1">
+        <v>42.3950933566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>0.9</v>
@@ -3040,24 +3254,27 @@
         <v>149</v>
       </c>
       <c r="D81">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G81" s="1">
-        <v>0.38897575467899997</v>
+        <v>0.33388018340499998</v>
       </c>
       <c r="H81" s="1">
-        <v>4.5612834082999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I81" s="1">
+        <v>31.661619291499999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3075,18 +3292,21 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.39346814155600002</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
+        <v>0.36130404472400002</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.33406456311499999</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3095,27 +3315,27 @@
         <v>29</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>3.4482758620700001E-2</v>
       </c>
       <c r="G83" s="1">
-        <v>0.39346814155600002</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.36130404472400002</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.33620593377500002</v>
+      </c>
+      <c r="I83" s="1">
+        <v>18.2545783128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3124,24 +3344,27 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F84" s="1">
-        <v>8.1632653061200003E-2</v>
+        <v>2.0408163265300001E-2</v>
       </c>
       <c r="G84" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H84" s="1">
-        <v>10.894419642000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.336118355393</v>
+      </c>
+      <c r="I84" s="1">
+        <v>23.728530651500002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3150,24 +3373,27 @@
         <v>69</v>
       </c>
       <c r="D85">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F85" s="1">
-        <v>0.260869565217</v>
+        <v>1.4492753623200001E-2</v>
       </c>
       <c r="G85" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H85" s="1">
-        <v>6.0943072854000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.33463838170600002</v>
+      </c>
+      <c r="I85" s="1">
+        <v>28.157711277400001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3176,24 +3402,27 @@
         <v>89</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1">
-        <v>0.404494382022</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G86" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H86" s="1">
-        <v>4.8941785403500004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.33436010913399999</v>
+      </c>
+      <c r="I86" s="1">
+        <v>31.979215779699999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3202,24 +3431,27 @@
         <v>109</v>
       </c>
       <c r="D87">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1">
-        <v>0.45871559632999998</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G87" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H87" s="1">
-        <v>4.59583366738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.33490576788199999</v>
+      </c>
+      <c r="I87" s="1">
+        <v>35.390447572600003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3228,24 +3460,27 @@
         <v>129</v>
       </c>
       <c r="D88">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F88" s="1">
-        <v>0.488372093023</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G88" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H88" s="1">
-        <v>4.4541068988200001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.33364481478899999</v>
+      </c>
+      <c r="I88" s="1">
+        <v>38.500614500099999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3254,19 +3489,22 @@
         <v>149</v>
       </c>
       <c r="D89">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F89" s="1">
-        <v>0.47651006711400001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G89" s="1">
-        <v>0.39346814155600002</v>
+        <v>0.36130404472400002</v>
       </c>
       <c r="H89" s="1">
-        <v>4.5092053680199999</v>
+        <v>0.33376452874200002</v>
+      </c>
+      <c r="I89" s="1">
+        <v>29.258424892600001</v>
       </c>
     </row>
   </sheetData>
